--- a/backend/src/student/studentdata.xlsx
+++ b/backend/src/student/studentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rapid-rampup\backend\src\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1850E56-D407-4813-8D26-DFEE5DBD481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911B9E9-97C0-4924-AE2C-70C601B4A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>kwkw</t>
+  </si>
+  <si>
+    <t>nandika</t>
+  </si>
+  <si>
+    <t>nj@gmail</t>
+  </si>
+  <si>
+    <t>soisa</t>
+  </si>
+  <si>
+    <t>sosi@gmail</t>
   </si>
 </sst>
 </file>
@@ -360,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -390,6 +402,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1993</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1994</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/src/student/studentdata.xlsx
+++ b/backend/src/student/studentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rapid-rampup\backend\src\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911B9E9-97C0-4924-AE2C-70C601B4A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1FFB18-6AA5-4E15-AB90-9E63358BDDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>dsdssds</t>
-  </si>
-  <si>
-    <t>dsd</t>
-  </si>
-  <si>
-    <t>kwkw</t>
   </si>
   <si>
     <t>nandika</t>
@@ -372,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,33 +386,22 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1993</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1994</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1993</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1994</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/student/studentdata.xlsx
+++ b/backend/src/student/studentdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rapid-rampup\backend\src\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1FFB18-6AA5-4E15-AB90-9E63358BDDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40912A92-6F8C-4E59-AD3C-02A9CF0298DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +367,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -386,8 +390,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1993</v>
+      <c r="B2" s="1">
+        <v>34222</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -397,8 +401,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1994</v>
+      <c r="B3" s="1">
+        <v>34405</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
